--- a/Jogos_do_Dia/2023-03-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="164">
   <si>
     <t>League</t>
   </si>
@@ -136,6 +136,9 @@
     <t>Bahrain Bahraini Premier League</t>
   </si>
   <si>
+    <t>Estonia Meistriliiga</t>
+  </si>
+  <si>
     <t>Lithuania A Lyga</t>
   </si>
   <si>
@@ -148,12 +151,12 @@
     <t>France Ligue 2</t>
   </si>
   <si>
+    <t>England National League</t>
+  </si>
+  <si>
     <t>England Championship</t>
   </si>
   <si>
-    <t>England National League</t>
-  </si>
-  <si>
     <t>England EFL League Two</t>
   </si>
   <si>
@@ -202,6 +205,9 @@
     <t>Muharraq</t>
   </si>
   <si>
+    <t>Tallinna FC Flora</t>
+  </si>
+  <si>
     <t>FA Šiauliai</t>
   </si>
   <si>
@@ -217,10 +223,13 @@
     <t>Zwickau</t>
   </si>
   <si>
+    <t>Hallescher FC</t>
+  </si>
+  <si>
     <t>Meppen</t>
   </si>
   <si>
-    <t>Hallescher FC</t>
+    <t>Rot-Weiss Essen</t>
   </si>
   <si>
     <t>1860 München</t>
@@ -229,54 +238,51 @@
     <t>Paris</t>
   </si>
   <si>
-    <t>Rot-Weiss Essen</t>
+    <t>York City</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>Maidenhead United</t>
+  </si>
+  <si>
+    <t>Halifax Town</t>
+  </si>
+  <si>
+    <t>Solihull Moors</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Boreham Wood</t>
+  </si>
+  <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
+    <t>Wigan Athletic</t>
+  </si>
+  <si>
+    <t>Watford</t>
   </si>
   <si>
     <t>Rotherham United</t>
   </si>
   <si>
-    <t>York City</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>Maidenhead United</t>
-  </si>
-  <si>
-    <t>Halifax Town</t>
-  </si>
-  <si>
-    <t>Solihull Moors</t>
-  </si>
-  <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Boreham Wood</t>
-  </si>
-  <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
-    <t>Wigan Athletic</t>
-  </si>
-  <si>
-    <t>Watford</t>
-  </si>
-  <si>
     <t>Millwall</t>
   </si>
   <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Sutton United</t>
+  </si>
+  <si>
     <t>Stevenage</t>
   </si>
   <si>
-    <t>Sutton United</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
     <t>Northampton Town</t>
   </si>
   <si>
@@ -361,6 +367,9 @@
     <t>Bahrain SC</t>
   </si>
   <si>
+    <t>Trans</t>
+  </si>
+  <si>
     <t>Hegelmann Litauen</t>
   </si>
   <si>
@@ -376,10 +385,13 @@
     <t>Erzgebirge Aue</t>
   </si>
   <si>
+    <t>Viktoria Köln</t>
+  </si>
+  <si>
     <t>Verl</t>
   </si>
   <si>
-    <t>Viktoria Köln</t>
+    <t>Osnabrück</t>
   </si>
   <si>
     <t>Elversberg</t>
@@ -388,52 +400,49 @@
     <t>Amiens SC</t>
   </si>
   <si>
-    <t>Osnabrück</t>
+    <t>Altrincham</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Aldershot Town</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Scunthorpe United</t>
+  </si>
+  <si>
+    <t>Yeovil Town</t>
+  </si>
+  <si>
+    <t>Southend United</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Coventry City</t>
+  </si>
+  <si>
+    <t>Birmingham City</t>
   </si>
   <si>
     <t>Preston North End</t>
   </si>
   <si>
-    <t>Altrincham</t>
-  </si>
-  <si>
-    <t>Eastleigh</t>
-  </si>
-  <si>
-    <t>Aldershot Town</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
-    <t>Scunthorpe United</t>
-  </si>
-  <si>
-    <t>Yeovil Town</t>
-  </si>
-  <si>
-    <t>Southend United</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Coventry City</t>
-  </si>
-  <si>
-    <t>Birmingham City</t>
-  </si>
-  <si>
     <t>Swansea City</t>
   </si>
   <si>
+    <t>Swindon Town</t>
+  </si>
+  <si>
+    <t>Grimsby Town</t>
+  </si>
+  <si>
     <t>Crewe Alexandra</t>
-  </si>
-  <si>
-    <t>Grimsby Town</t>
-  </si>
-  <si>
-    <t>Swindon Town</t>
   </si>
   <si>
     <t>Mansfield Town</t>
@@ -858,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH54"/>
+  <dimension ref="A1:AH55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -979,10 +988,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F2">
         <v>2.62</v>
@@ -1083,10 +1092,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>1.75</v>
@@ -1187,10 +1196,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F4">
         <v>1.68</v>
@@ -1291,19 +1300,19 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F5">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="G5">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>3.62</v>
+        <v>3.75</v>
       </c>
       <c r="I5">
         <v>1.1</v>
@@ -1312,13 +1321,13 @@
         <v>7.1</v>
       </c>
       <c r="K5">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="L5">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="M5">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="N5">
         <v>1.52</v>
@@ -1360,16 +1369,16 @@
         <v>3.3</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE5">
         <v>1.76</v>
@@ -1378,10 +1387,10 @@
         <v>2.21</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1395,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F6">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="G6">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="H6">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="I6">
         <v>1.05</v>
@@ -1422,10 +1431,10 @@
         <v>3.1</v>
       </c>
       <c r="M6">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="N6">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O6">
         <v>1.44</v>
@@ -1434,10 +1443,10 @@
         <v>2.6</v>
       </c>
       <c r="Q6">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="S6">
         <v>1.2</v>
@@ -1464,13 +1473,13 @@
         <v>3.72</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1479,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1499,19 +1508,19 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F7">
-        <v>1.98</v>
+        <v>2.5</v>
       </c>
       <c r="G7">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="I7">
         <v>1.1</v>
@@ -1520,16 +1529,16 @@
         <v>6.5</v>
       </c>
       <c r="K7">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="L7">
-        <v>2.6</v>
+        <v>2.27</v>
       </c>
       <c r="M7">
         <v>2.4</v>
       </c>
       <c r="N7">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="O7">
         <v>1.5</v>
@@ -1589,7 +1598,7 @@
         <v>3.42</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1603,19 +1612,19 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1630,10 +1639,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1707,19 +1716,19 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1734,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1761,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="Y9">
-        <v>2.4</v>
+        <v>1.11</v>
       </c>
       <c r="Z9">
-        <v>2.4</v>
+        <v>2.95</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1805,79 +1814,79 @@
         <v>41</v>
       </c>
       <c r="B10" s="2">
-        <v>44999.60416666666</v>
+        <v>44999.54166666666</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F10">
-        <v>1.36</v>
+        <v>4.28</v>
       </c>
       <c r="G10">
-        <v>4.5</v>
+        <v>3.38</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>1.78</v>
       </c>
       <c r="I10">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K10">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="M10">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="N10">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="O10">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P10">
-        <v>2.75</v>
+        <v>2.61</v>
       </c>
       <c r="Q10">
-        <v>2.41</v>
+        <v>1.85</v>
       </c>
       <c r="R10">
-        <v>1.52</v>
+        <v>1.81</v>
       </c>
       <c r="S10">
-        <v>1.05</v>
+        <v>1.82</v>
       </c>
       <c r="T10">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="U10">
-        <v>2.88</v>
+        <v>1.21</v>
       </c>
       <c r="V10">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>1.22</v>
+        <v>2.4</v>
       </c>
       <c r="Z10">
-        <v>2.89</v>
+        <v>2.4</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1906,7 +1915,7 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2">
         <v>44999.60416666666</v>
@@ -1915,73 +1924,73 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F11">
-        <v>1.8</v>
+        <v>1.36</v>
       </c>
       <c r="G11">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="H11">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="I11">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K11">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="L11">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="M11">
+        <v>1.95</v>
+      </c>
+      <c r="N11">
+        <v>1.78</v>
+      </c>
+      <c r="O11">
+        <v>1.4</v>
+      </c>
+      <c r="P11">
         <v>2.75</v>
       </c>
-      <c r="N11">
-        <v>1.34</v>
-      </c>
-      <c r="O11">
-        <v>1.57</v>
-      </c>
-      <c r="P11">
-        <v>2.3</v>
-      </c>
       <c r="Q11">
-        <v>2.58</v>
+        <v>2.41</v>
       </c>
       <c r="R11">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="S11">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="T11">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="U11">
-        <v>1.85</v>
+        <v>2.88</v>
       </c>
       <c r="V11">
-        <v>1.91</v>
+        <v>2.73</v>
       </c>
       <c r="W11">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="Y11">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="Z11">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -2010,82 +2019,82 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2">
-        <v>44999.625</v>
+        <v>44999.60416666666</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>1.91</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="X12">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="Z12">
-        <v>1.43</v>
+        <v>2.85</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -2100,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2114,25 +2123,25 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2">
         <v>44999.625</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F13">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G13">
-        <v>3.3</v>
+        <v>3.07</v>
       </c>
       <c r="H13">
         <v>2.45</v>
@@ -2141,55 +2150,55 @@
         <v>1.06</v>
       </c>
       <c r="J13">
-        <v>8</v>
+        <v>9.85</v>
       </c>
       <c r="K13">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="L13">
-        <v>3.4</v>
+        <v>3.07</v>
       </c>
       <c r="M13">
-        <v>1.87</v>
+        <v>2.03</v>
       </c>
       <c r="N13">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="O13">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q13">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R13">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T13">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U13">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="V13">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="Y13">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>3</v>
+        <v>1.43</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -2204,21 +2213,21 @@
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:34">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2">
         <v>44999.625</v>
@@ -2227,102 +2236,102 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F14">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G14">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H14">
         <v>2.45</v>
       </c>
       <c r="I14">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="J14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K14">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="N14">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O14">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P14">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="Q14">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R14">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S14">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="T14">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U14">
         <v>1.45</v>
       </c>
       <c r="V14">
-        <v>0.92</v>
+        <v>1.17</v>
       </c>
       <c r="W14">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="X14">
-        <v>1.64</v>
+        <v>1.39</v>
       </c>
       <c r="Y14">
-        <v>1.32</v>
+        <v>1.61</v>
       </c>
       <c r="Z14">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE14">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AF14">
-        <v>1.67</v>
+        <v>1.51</v>
       </c>
       <c r="AG14">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AH14">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:34">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2">
         <v>44999.625</v>
@@ -2331,10 +2340,10 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F15">
         <v>2.4</v>
@@ -2400,16 +2409,16 @@
         <v>3.07</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE15">
         <v>1.5</v>
@@ -2426,7 +2435,7 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2">
         <v>44999.625</v>
@@ -2435,97 +2444,97 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F16">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="G16">
+        <v>3.4</v>
+      </c>
+      <c r="H16">
+        <v>2.45</v>
+      </c>
+      <c r="I16">
+        <v>1.05</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>1.25</v>
+      </c>
+      <c r="L16">
         <v>3.6</v>
       </c>
-      <c r="H16">
-        <v>2.25</v>
-      </c>
-      <c r="I16">
-        <v>1.04</v>
-      </c>
-      <c r="J16">
-        <v>10</v>
-      </c>
-      <c r="K16">
-        <v>1.22</v>
-      </c>
-      <c r="L16">
-        <v>4</v>
-      </c>
       <c r="M16">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="N16">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="O16">
+        <v>1.37</v>
+      </c>
+      <c r="P16">
+        <v>2.85</v>
+      </c>
+      <c r="Q16">
+        <v>1.65</v>
+      </c>
+      <c r="R16">
+        <v>2.15</v>
+      </c>
+      <c r="S16">
+        <v>1.52</v>
+      </c>
+      <c r="T16">
+        <v>1.25</v>
+      </c>
+      <c r="U16">
+        <v>1.45</v>
+      </c>
+      <c r="V16">
+        <v>0.92</v>
+      </c>
+      <c r="W16">
+        <v>0.92</v>
+      </c>
+      <c r="X16">
+        <v>1.64</v>
+      </c>
+      <c r="Y16">
         <v>1.32</v>
       </c>
-      <c r="P16">
-        <v>3.15</v>
-      </c>
-      <c r="Q16">
-        <v>1.57</v>
-      </c>
-      <c r="R16">
-        <v>2.3</v>
-      </c>
-      <c r="S16">
-        <v>1.63</v>
-      </c>
-      <c r="T16">
-        <v>1.22</v>
-      </c>
-      <c r="U16">
-        <v>1.4</v>
-      </c>
-      <c r="V16">
-        <v>1.69</v>
-      </c>
-      <c r="W16">
-        <v>2.17</v>
-      </c>
-      <c r="X16">
-        <v>1.85</v>
-      </c>
-      <c r="Y16">
-        <v>1.73</v>
-      </c>
       <c r="Z16">
-        <v>3.58</v>
+        <v>2.96</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE16">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AF16">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AG16">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AH16">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2536,105 +2545,105 @@
         <v>44999.625</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F17">
-        <v>2.07</v>
+        <v>2.85</v>
       </c>
       <c r="G17">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H17">
-        <v>3.12</v>
+        <v>2.35</v>
       </c>
       <c r="I17">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="J17">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="K17">
+        <v>1.25</v>
+      </c>
+      <c r="L17">
+        <v>3.75</v>
+      </c>
+      <c r="M17">
+        <v>1.83</v>
+      </c>
+      <c r="N17">
+        <v>1.9</v>
+      </c>
+      <c r="O17">
+        <v>1.37</v>
+      </c>
+      <c r="P17">
+        <v>2.85</v>
+      </c>
+      <c r="Q17">
+        <v>1.65</v>
+      </c>
+      <c r="R17">
+        <v>2.15</v>
+      </c>
+      <c r="S17">
+        <v>1.45</v>
+      </c>
+      <c r="T17">
+        <v>1.25</v>
+      </c>
+      <c r="U17">
         <v>1.42</v>
       </c>
-      <c r="L17">
-        <v>2.75</v>
-      </c>
-      <c r="M17">
-        <v>2.2</v>
-      </c>
-      <c r="N17">
-        <v>1.62</v>
-      </c>
-      <c r="O17">
-        <v>1.49</v>
-      </c>
-      <c r="P17">
-        <v>2.4</v>
-      </c>
-      <c r="Q17">
-        <v>1.98</v>
-      </c>
-      <c r="R17">
-        <v>1.73</v>
-      </c>
-      <c r="S17">
-        <v>1.36</v>
-      </c>
-      <c r="T17">
-        <v>1.34</v>
-      </c>
-      <c r="U17">
-        <v>1.55</v>
-      </c>
       <c r="V17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W17">
+        <v>1.38</v>
+      </c>
+      <c r="X17">
+        <v>1.52</v>
+      </c>
+      <c r="Y17">
+        <v>1.59</v>
+      </c>
+      <c r="Z17">
+        <v>3.11</v>
+      </c>
+      <c r="AA17">
+        <v>2.05</v>
+      </c>
+      <c r="AB17">
+        <v>8.1</v>
+      </c>
+      <c r="AC17">
+        <v>2.05</v>
+      </c>
+      <c r="AD17">
         <v>1.23</v>
       </c>
-      <c r="X17">
-        <v>1.46</v>
-      </c>
-      <c r="Y17">
-        <v>1.49</v>
-      </c>
-      <c r="Z17">
-        <v>2.95</v>
-      </c>
-      <c r="AA17">
+      <c r="AE17">
+        <v>1.42</v>
+      </c>
+      <c r="AF17">
         <v>1.65</v>
       </c>
-      <c r="AB17">
-        <v>8.5</v>
-      </c>
-      <c r="AC17">
+      <c r="AG17">
+        <v>2</v>
+      </c>
+      <c r="AH17">
         <v>2.5</v>
-      </c>
-      <c r="AD17">
-        <v>1.4</v>
-      </c>
-      <c r="AE17">
-        <v>1.67</v>
-      </c>
-      <c r="AF17">
-        <v>2.1</v>
-      </c>
-      <c r="AG17">
-        <v>2.63</v>
-      </c>
-      <c r="AH17">
-        <v>3.6</v>
       </c>
     </row>
     <row r="18" spans="1:34">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2">
         <v>44999.625</v>
@@ -2643,97 +2652,97 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F18">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="G18">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H18">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="I18">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="J18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="N18">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="O18">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="P18">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="Q18">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R18">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S18">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="T18">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U18">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V18">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="W18">
-        <v>1.38</v>
+        <v>2.17</v>
       </c>
       <c r="X18">
-        <v>1.52</v>
+        <v>1.85</v>
       </c>
       <c r="Y18">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="Z18">
-        <v>3.11</v>
+        <v>3.58</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE18">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AF18">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AG18">
         <v>2</v>
       </c>
       <c r="AH18">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2741,103 +2750,103 @@
         <v>44</v>
       </c>
       <c r="B19" s="2">
-        <v>44999.69791666666</v>
+        <v>44999.625</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F19">
-        <v>2.42</v>
+        <v>2.15</v>
       </c>
       <c r="G19">
-        <v>3.01</v>
+        <v>3.3</v>
       </c>
       <c r="H19">
-        <v>2.73</v>
+        <v>3.3</v>
       </c>
       <c r="I19">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="J19">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="K19">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M19">
         <v>2.2</v>
       </c>
       <c r="N19">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="O19">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="P19">
+        <v>2.4</v>
+      </c>
+      <c r="Q19">
+        <v>1.98</v>
+      </c>
+      <c r="R19">
+        <v>1.73</v>
+      </c>
+      <c r="S19">
+        <v>1.36</v>
+      </c>
+      <c r="T19">
+        <v>1.34</v>
+      </c>
+      <c r="U19">
+        <v>1.55</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1.23</v>
+      </c>
+      <c r="X19">
+        <v>1.46</v>
+      </c>
+      <c r="Y19">
+        <v>1.49</v>
+      </c>
+      <c r="Z19">
+        <v>2.95</v>
+      </c>
+      <c r="AA19">
+        <v>1.65</v>
+      </c>
+      <c r="AB19">
+        <v>8.5</v>
+      </c>
+      <c r="AC19">
         <v>2.5</v>
       </c>
-      <c r="Q19">
-        <v>1.88</v>
-      </c>
-      <c r="R19">
-        <v>1.8</v>
-      </c>
-      <c r="S19">
-        <v>1.44</v>
-      </c>
-      <c r="T19">
-        <v>1.35</v>
-      </c>
-      <c r="U19">
-        <v>1.44</v>
-      </c>
-      <c r="V19">
-        <v>1.53</v>
-      </c>
-      <c r="W19">
-        <v>1.71</v>
-      </c>
-      <c r="X19">
-        <v>1.41</v>
-      </c>
-      <c r="Y19">
-        <v>1.18</v>
-      </c>
-      <c r="Z19">
-        <v>2.59</v>
-      </c>
-      <c r="AA19">
-        <v>1.82</v>
-      </c>
-      <c r="AB19">
-        <v>7.8</v>
-      </c>
-      <c r="AC19">
-        <v>2.49</v>
-      </c>
       <c r="AD19">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="AE19">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="AF19">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="AG19">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="AH19">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2851,10 +2860,10 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F20">
         <v>2.4</v>
@@ -2955,10 +2964,10 @@
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F21">
         <v>1.25</v>
@@ -3024,19 +3033,19 @@
         <v>3.68</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>14.25</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF21">
         <v>1.58</v>
@@ -3059,10 +3068,10 @@
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F22">
         <v>2.2</v>
@@ -3128,19 +3137,19 @@
         <v>2.89</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF22">
         <v>1.68</v>
@@ -3149,7 +3158,7 @@
         <v>2.06</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -3163,10 +3172,10 @@
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F23">
         <v>2.55</v>
@@ -3267,10 +3276,10 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F24">
         <v>1.62</v>
@@ -3371,10 +3380,10 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F25">
         <v>1.72</v>
@@ -3475,10 +3484,10 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F26">
         <v>2.45</v>
@@ -3553,7 +3562,7 @@
         <v>2.08</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE26">
         <v>1.34</v>
@@ -3579,10 +3588,10 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F27">
         <v>3.1</v>
@@ -3674,7 +3683,7 @@
     </row>
     <row r="28" spans="1:34">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2">
         <v>44999.69791666666</v>
@@ -3683,19 +3692,19 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F28">
-        <v>2.65</v>
+        <v>3.26</v>
       </c>
       <c r="G28">
-        <v>2.98</v>
+        <v>3.36</v>
       </c>
       <c r="H28">
-        <v>2.5</v>
+        <v>2.23</v>
       </c>
       <c r="I28">
         <v>1.07</v>
@@ -3778,7 +3787,7 @@
     </row>
     <row r="29" spans="1:34">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2">
         <v>44999.69791666666</v>
@@ -3787,19 +3796,19 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F29">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="G29">
-        <v>3.32</v>
+        <v>3.73</v>
       </c>
       <c r="H29">
-        <v>4.05</v>
+        <v>4.97</v>
       </c>
       <c r="I29">
         <v>1.06</v>
@@ -3882,7 +3891,7 @@
     </row>
     <row r="30" spans="1:34">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2">
         <v>44999.69791666666</v>
@@ -3891,97 +3900,97 @@
         <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F30">
-        <v>1.91</v>
+        <v>2.61</v>
       </c>
       <c r="G30">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H30">
-        <v>3.55</v>
+        <v>2.76</v>
       </c>
       <c r="I30">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="J30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K30">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M30">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="N30">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="O30">
+        <v>1.47</v>
+      </c>
+      <c r="P30">
+        <v>2.5</v>
+      </c>
+      <c r="Q30">
+        <v>1.88</v>
+      </c>
+      <c r="R30">
+        <v>1.8</v>
+      </c>
+      <c r="S30">
+        <v>1.44</v>
+      </c>
+      <c r="T30">
+        <v>1.35</v>
+      </c>
+      <c r="U30">
+        <v>1.44</v>
+      </c>
+      <c r="V30">
+        <v>1.53</v>
+      </c>
+      <c r="W30">
+        <v>1.71</v>
+      </c>
+      <c r="X30">
         <v>1.41</v>
       </c>
-      <c r="P30">
-        <v>2.65</v>
-      </c>
-      <c r="Q30">
-        <v>1.8</v>
-      </c>
-      <c r="R30">
-        <v>1.87</v>
-      </c>
-      <c r="S30">
-        <v>1.24</v>
-      </c>
-      <c r="T30">
-        <v>1.3</v>
-      </c>
-      <c r="U30">
+      <c r="Y30">
+        <v>1.18</v>
+      </c>
+      <c r="Z30">
+        <v>2.59</v>
+      </c>
+      <c r="AA30">
         <v>1.82</v>
       </c>
-      <c r="V30">
-        <v>1.88</v>
-      </c>
-      <c r="W30">
-        <v>1.06</v>
-      </c>
-      <c r="X30">
+      <c r="AB30">
+        <v>7.8</v>
+      </c>
+      <c r="AC30">
+        <v>2.49</v>
+      </c>
+      <c r="AD30">
+        <v>1.21</v>
+      </c>
+      <c r="AE30">
+        <v>1.48</v>
+      </c>
+      <c r="AF30">
         <v>1.73</v>
       </c>
-      <c r="Y30">
-        <v>1.45</v>
-      </c>
-      <c r="Z30">
-        <v>3.18</v>
-      </c>
-      <c r="AA30">
-        <v>1.73</v>
-      </c>
-      <c r="AB30">
-        <v>7.7</v>
-      </c>
-      <c r="AC30">
-        <v>2.68</v>
-      </c>
-      <c r="AD30">
-        <v>1.27</v>
-      </c>
-      <c r="AE30">
-        <v>1.57</v>
-      </c>
-      <c r="AF30">
-        <v>1.91</v>
-      </c>
       <c r="AG30">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AH30">
-        <v>3.42</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="31" spans="1:34">
@@ -3992,138 +4001,138 @@
         <v>44999.69791666666</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F31">
-        <v>1.36</v>
+        <v>1.94</v>
       </c>
       <c r="G31">
-        <v>4.5</v>
+        <v>3.54</v>
       </c>
       <c r="H31">
-        <v>9.5</v>
+        <v>3.93</v>
       </c>
       <c r="I31">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="J31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K31">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="L31">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="N31">
+        <v>1.83</v>
+      </c>
+      <c r="O31">
+        <v>1.41</v>
+      </c>
+      <c r="P31">
+        <v>2.65</v>
+      </c>
+      <c r="Q31">
+        <v>1.8</v>
+      </c>
+      <c r="R31">
         <v>1.87</v>
       </c>
-      <c r="O31">
-        <v>1.34</v>
-      </c>
-      <c r="P31">
-        <v>3</v>
-      </c>
-      <c r="Q31">
-        <v>2.2</v>
-      </c>
-      <c r="R31">
-        <v>1.64</v>
-      </c>
       <c r="S31">
-        <v>1.05</v>
+        <v>1.24</v>
       </c>
       <c r="T31">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="U31">
-        <v>3.1</v>
+        <v>1.82</v>
       </c>
       <c r="V31">
-        <v>2.35</v>
+        <v>1.88</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="X31">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="Y31">
-        <v>0.96</v>
+        <v>1.45</v>
       </c>
       <c r="Z31">
-        <v>2.74</v>
+        <v>3.18</v>
       </c>
       <c r="AA31">
-        <v>1.13</v>
+        <v>1.73</v>
       </c>
       <c r="AB31">
-        <v>14</v>
+        <v>7.7</v>
       </c>
       <c r="AC31">
-        <v>7.7</v>
+        <v>2.68</v>
       </c>
       <c r="AD31">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AE31">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AF31">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="AG31">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AH31">
-        <v>3.2</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="32" spans="1:34">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2">
         <v>44999.69791666666</v>
       </c>
       <c r="C32">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F32">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="G32">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H32">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I32">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="J32">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="K32">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="L32">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M32">
         <v>2.3</v>
@@ -4132,102 +4141,102 @@
         <v>1.6</v>
       </c>
       <c r="O32">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="P32">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q32">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R32">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="T32">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="U32">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="V32">
-        <v>2.06</v>
+        <v>1.59</v>
       </c>
       <c r="W32">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X32">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="Y32">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="Z32">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AA32">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="AB32">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AC32">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="AD32">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AE32">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AF32">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AG32">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="AH32">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="33" spans="1:34">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2">
         <v>44999.69791666666</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F33">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="G33">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H33">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I33">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="J33">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="K33">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="L33">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M33">
         <v>2.3</v>
@@ -4236,173 +4245,173 @@
         <v>1.6</v>
       </c>
       <c r="O33">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="P33">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q33">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="S33">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="T33">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="U33">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="V33">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="W33">
+        <v>1.38</v>
+      </c>
+      <c r="X33">
+        <v>1.65</v>
+      </c>
+      <c r="Y33">
         <v>1.35</v>
       </c>
-      <c r="X33">
-        <v>1.53</v>
-      </c>
-      <c r="Y33">
-        <v>1.37</v>
-      </c>
       <c r="Z33">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AA33">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="AB33">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AC33">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="AD33">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AE33">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AF33">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AG33">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="AH33">
-        <v>3.2</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="34" spans="1:34">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2">
         <v>44999.69791666666</v>
       </c>
       <c r="C34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F34">
-        <v>2.25</v>
+        <v>1.36</v>
       </c>
       <c r="G34">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="H34">
-        <v>3.25</v>
+        <v>9.5</v>
       </c>
       <c r="I34">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="J34">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="K34">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="L34">
+        <v>3.6</v>
+      </c>
+      <c r="M34">
+        <v>1.9</v>
+      </c>
+      <c r="N34">
+        <v>1.87</v>
+      </c>
+      <c r="O34">
+        <v>1.34</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+      <c r="Q34">
+        <v>2.2</v>
+      </c>
+      <c r="R34">
+        <v>1.64</v>
+      </c>
+      <c r="S34">
+        <v>1.05</v>
+      </c>
+      <c r="T34">
+        <v>1.14</v>
+      </c>
+      <c r="U34">
         <v>3.1</v>
       </c>
-      <c r="M34">
-        <v>2.15</v>
-      </c>
-      <c r="N34">
-        <v>1.68</v>
-      </c>
-      <c r="O34">
-        <v>1.42</v>
-      </c>
-      <c r="P34">
-        <v>2.65</v>
-      </c>
-      <c r="Q34">
-        <v>1.85</v>
-      </c>
-      <c r="R34">
-        <v>1.9</v>
-      </c>
-      <c r="S34">
-        <v>1.4</v>
-      </c>
-      <c r="T34">
-        <v>1.28</v>
-      </c>
-      <c r="U34">
-        <v>1.57</v>
-      </c>
       <c r="V34">
-        <v>1.71</v>
+        <v>2.35</v>
       </c>
       <c r="W34">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="X34">
-        <v>1.44</v>
+        <v>1.78</v>
       </c>
       <c r="Y34">
-        <v>1.54</v>
+        <v>0.96</v>
       </c>
       <c r="Z34">
-        <v>2.98</v>
+        <v>2.74</v>
       </c>
       <c r="AA34">
-        <v>2.1</v>
+        <v>1.13</v>
       </c>
       <c r="AB34">
-        <v>7.5</v>
+        <v>14</v>
       </c>
       <c r="AC34">
-        <v>1.95</v>
+        <v>7.7</v>
       </c>
       <c r="AD34">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AE34">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AF34">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AG34">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AH34">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="35" spans="1:34">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2">
         <v>44999.69791666666</v>
@@ -4411,82 +4420,82 @@
         <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F35">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="G35">
+        <v>3.25</v>
+      </c>
+      <c r="H35">
+        <v>3.25</v>
+      </c>
+      <c r="I35">
+        <v>1.06</v>
+      </c>
+      <c r="J35">
+        <v>9.5</v>
+      </c>
+      <c r="K35">
+        <v>1.36</v>
+      </c>
+      <c r="L35">
         <v>3.1</v>
       </c>
-      <c r="H35">
-        <v>3.6</v>
-      </c>
-      <c r="I35">
-        <v>1.08</v>
-      </c>
-      <c r="J35">
-        <v>6.5</v>
-      </c>
-      <c r="K35">
-        <v>1.37</v>
-      </c>
-      <c r="L35">
-        <v>2.8</v>
-      </c>
       <c r="M35">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="N35">
+        <v>1.68</v>
+      </c>
+      <c r="O35">
+        <v>1.42</v>
+      </c>
+      <c r="P35">
+        <v>2.65</v>
+      </c>
+      <c r="Q35">
+        <v>1.85</v>
+      </c>
+      <c r="R35">
+        <v>1.9</v>
+      </c>
+      <c r="S35">
+        <v>1.4</v>
+      </c>
+      <c r="T35">
+        <v>1.28</v>
+      </c>
+      <c r="U35">
         <v>1.57</v>
       </c>
-      <c r="O35">
-        <v>1.47</v>
-      </c>
-      <c r="P35">
-        <v>2.45</v>
-      </c>
-      <c r="Q35">
-        <v>1.9</v>
-      </c>
-      <c r="R35">
-        <v>1.8</v>
-      </c>
-      <c r="S35">
-        <v>1.25</v>
-      </c>
-      <c r="T35">
-        <v>1.33</v>
-      </c>
-      <c r="U35">
-        <v>1.62</v>
-      </c>
       <c r="V35">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="X35">
         <v>1.44</v>
       </c>
       <c r="Y35">
-        <v>1.13</v>
+        <v>1.54</v>
       </c>
       <c r="Z35">
-        <v>2.57</v>
+        <v>2.98</v>
       </c>
       <c r="AA35">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="AB35">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AC35">
-        <v>3.16</v>
+        <v>1.95</v>
       </c>
       <c r="AD35">
         <v>1.3</v>
@@ -4515,290 +4524,290 @@
         <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F36">
-        <v>2.95</v>
+        <v>2.2</v>
       </c>
       <c r="G36">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H36">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="I36">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="J36">
+        <v>6.5</v>
+      </c>
+      <c r="K36">
+        <v>1.37</v>
+      </c>
+      <c r="L36">
+        <v>2.8</v>
+      </c>
+      <c r="M36">
+        <v>2.4</v>
+      </c>
+      <c r="N36">
+        <v>1.57</v>
+      </c>
+      <c r="O36">
+        <v>1.47</v>
+      </c>
+      <c r="P36">
+        <v>2.45</v>
+      </c>
+      <c r="Q36">
+        <v>1.9</v>
+      </c>
+      <c r="R36">
+        <v>1.8</v>
+      </c>
+      <c r="S36">
+        <v>1.25</v>
+      </c>
+      <c r="T36">
+        <v>1.33</v>
+      </c>
+      <c r="U36">
+        <v>1.62</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>1.44</v>
+      </c>
+      <c r="Y36">
+        <v>1.13</v>
+      </c>
+      <c r="Z36">
+        <v>2.57</v>
+      </c>
+      <c r="AA36">
+        <v>1.51</v>
+      </c>
+      <c r="AB36">
         <v>8.5</v>
       </c>
-      <c r="K36">
-        <v>1.25</v>
-      </c>
-      <c r="L36">
-        <v>3.5</v>
-      </c>
-      <c r="M36">
-        <v>1.83</v>
-      </c>
-      <c r="N36">
-        <v>1.95</v>
-      </c>
-      <c r="O36">
-        <v>1.37</v>
-      </c>
-      <c r="P36">
-        <v>2.8</v>
-      </c>
-      <c r="Q36">
-        <v>1.65</v>
-      </c>
-      <c r="R36">
-        <v>2.1</v>
-      </c>
-      <c r="S36">
-        <v>1.45</v>
-      </c>
-      <c r="T36">
-        <v>1.25</v>
-      </c>
-      <c r="U36">
-        <v>1.47</v>
-      </c>
-      <c r="V36">
-        <v>1.24</v>
-      </c>
-      <c r="W36">
-        <v>1.35</v>
-      </c>
-      <c r="X36">
-        <v>1.5</v>
-      </c>
-      <c r="Y36">
-        <v>1.5</v>
-      </c>
-      <c r="Z36">
-        <v>3</v>
-      </c>
-      <c r="AA36">
-        <v>1.71</v>
-      </c>
-      <c r="AB36">
-        <v>7.5</v>
-      </c>
       <c r="AC36">
-        <v>2.6</v>
+        <v>3.16</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE36">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="AF36">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AG36">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="AH36">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="37" spans="1:34">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2">
         <v>44999.69791666666</v>
       </c>
       <c r="C37">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F37">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="G37">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H37">
+        <v>2.3</v>
+      </c>
+      <c r="I37">
+        <v>1.03</v>
+      </c>
+      <c r="J37">
+        <v>8.5</v>
+      </c>
+      <c r="K37">
+        <v>1.25</v>
+      </c>
+      <c r="L37">
+        <v>3.5</v>
+      </c>
+      <c r="M37">
+        <v>1.83</v>
+      </c>
+      <c r="N37">
+        <v>1.95</v>
+      </c>
+      <c r="O37">
+        <v>1.37</v>
+      </c>
+      <c r="P37">
+        <v>2.8</v>
+      </c>
+      <c r="Q37">
+        <v>1.65</v>
+      </c>
+      <c r="R37">
         <v>2.1</v>
       </c>
-      <c r="I37">
-        <v>1.04</v>
-      </c>
-      <c r="J37">
-        <v>13</v>
-      </c>
-      <c r="K37">
+      <c r="S37">
+        <v>1.45</v>
+      </c>
+      <c r="T37">
+        <v>1.25</v>
+      </c>
+      <c r="U37">
+        <v>1.47</v>
+      </c>
+      <c r="V37">
         <v>1.24</v>
       </c>
-      <c r="L37">
-        <v>3.7</v>
-      </c>
-      <c r="M37">
-        <v>1.75</v>
-      </c>
-      <c r="N37">
-        <v>2.05</v>
-      </c>
-      <c r="O37">
+      <c r="W37">
         <v>1.35</v>
       </c>
-      <c r="P37">
-        <v>2.95</v>
-      </c>
-      <c r="Q37">
-        <v>1.62</v>
-      </c>
-      <c r="R37">
-        <v>2.15</v>
-      </c>
-      <c r="S37">
-        <v>1.55</v>
-      </c>
-      <c r="T37">
-        <v>1.27</v>
-      </c>
-      <c r="U37">
-        <v>1.42</v>
-      </c>
-      <c r="V37">
-        <v>1.35</v>
-      </c>
-      <c r="W37">
-        <v>1.12</v>
-      </c>
       <c r="X37">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="Y37">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="Z37">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="AA37">
-        <v>1.89</v>
+        <v>1.71</v>
       </c>
       <c r="AB37">
         <v>7.5</v>
       </c>
       <c r="AC37">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AD37">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AE37">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="AF37">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AG37">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
       <c r="AH37">
-        <v>2.85</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="38" spans="1:34">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2">
         <v>44999.69791666666</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G38">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H38">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="I38">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J38">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="K38">
+        <v>1.24</v>
+      </c>
+      <c r="L38">
+        <v>3.7</v>
+      </c>
+      <c r="M38">
+        <v>1.75</v>
+      </c>
+      <c r="N38">
+        <v>2.05</v>
+      </c>
+      <c r="O38">
+        <v>1.35</v>
+      </c>
+      <c r="P38">
+        <v>2.95</v>
+      </c>
+      <c r="Q38">
+        <v>1.62</v>
+      </c>
+      <c r="R38">
+        <v>2.15</v>
+      </c>
+      <c r="S38">
+        <v>1.55</v>
+      </c>
+      <c r="T38">
         <v>1.27</v>
       </c>
-      <c r="L38">
-        <v>3.4</v>
-      </c>
-      <c r="M38">
-        <v>1.9</v>
-      </c>
-      <c r="N38">
-        <v>1.87</v>
-      </c>
-      <c r="O38">
-        <v>1.39</v>
-      </c>
-      <c r="P38">
-        <v>2.8</v>
-      </c>
-      <c r="Q38">
-        <v>1.87</v>
-      </c>
-      <c r="R38">
-        <v>1.95</v>
-      </c>
-      <c r="S38">
-        <v>1.95</v>
-      </c>
-      <c r="T38">
-        <v>1.25</v>
-      </c>
       <c r="U38">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="V38">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="W38">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="X38">
-        <v>1.32</v>
+        <v>1.56</v>
       </c>
       <c r="Y38">
-        <v>1.15</v>
+        <v>1.41</v>
       </c>
       <c r="Z38">
-        <v>2.47</v>
+        <v>2.97</v>
       </c>
       <c r="AA38">
-        <v>2.9</v>
+        <v>1.89</v>
       </c>
       <c r="AB38">
         <v>7.5</v>
       </c>
       <c r="AC38">
-        <v>1.58</v>
+        <v>2.3</v>
       </c>
       <c r="AD38">
         <v>1.2</v>
@@ -4818,7 +4827,7 @@
     </row>
     <row r="39" spans="1:34">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2">
         <v>44999.69791666666</v>
@@ -4827,97 +4836,97 @@
         <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F39">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="G39">
         <v>3.5</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="I39">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J39">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="K39">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="N39">
+        <v>1.87</v>
+      </c>
+      <c r="O39">
+        <v>1.39</v>
+      </c>
+      <c r="P39">
+        <v>2.8</v>
+      </c>
+      <c r="Q39">
+        <v>1.87</v>
+      </c>
+      <c r="R39">
         <v>1.95</v>
       </c>
-      <c r="O39">
-        <v>1.34</v>
-      </c>
-      <c r="P39">
-        <v>3</v>
-      </c>
-      <c r="Q39">
-        <v>1.68</v>
-      </c>
-      <c r="R39">
-        <v>2.12</v>
-      </c>
       <c r="S39">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U39">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="V39">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="W39">
-        <v>1.29</v>
+        <v>1.06</v>
       </c>
       <c r="X39">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="Y39">
-        <v>1.43</v>
+        <v>1.15</v>
       </c>
       <c r="Z39">
-        <v>2.88</v>
+        <v>2.47</v>
       </c>
       <c r="AA39">
-        <v>2.43</v>
+        <v>2.9</v>
       </c>
       <c r="AB39">
         <v>7.5</v>
       </c>
       <c r="AC39">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="AD39">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AE39">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="AF39">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AG39">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="AH39">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="40" spans="1:34">
@@ -4928,100 +4937,100 @@
         <v>44999.69791666666</v>
       </c>
       <c r="C40">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F40">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="G40">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="H40">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J40">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K40">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="L40">
-        <v>4.23</v>
+        <v>3.5</v>
       </c>
       <c r="M40">
+        <v>1.85</v>
+      </c>
+      <c r="N40">
+        <v>1.95</v>
+      </c>
+      <c r="O40">
+        <v>1.34</v>
+      </c>
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <v>1.68</v>
+      </c>
+      <c r="R40">
+        <v>2.12</v>
+      </c>
+      <c r="S40">
         <v>1.62</v>
       </c>
-      <c r="N40">
-        <v>2.2</v>
-      </c>
-      <c r="O40">
-        <v>1.3</v>
-      </c>
-      <c r="P40">
-        <v>3.2</v>
-      </c>
-      <c r="Q40">
-        <v>1.92</v>
-      </c>
-      <c r="R40">
-        <v>1.85</v>
-      </c>
-      <c r="S40">
-        <v>1.09</v>
-      </c>
       <c r="T40">
+        <v>1.33</v>
+      </c>
+      <c r="U40">
+        <v>1.36</v>
+      </c>
+      <c r="V40">
+        <v>1.25</v>
+      </c>
+      <c r="W40">
+        <v>1.29</v>
+      </c>
+      <c r="X40">
+        <v>1.45</v>
+      </c>
+      <c r="Y40">
+        <v>1.43</v>
+      </c>
+      <c r="Z40">
+        <v>2.88</v>
+      </c>
+      <c r="AA40">
+        <v>2.43</v>
+      </c>
+      <c r="AB40">
+        <v>7.5</v>
+      </c>
+      <c r="AC40">
+        <v>1.8</v>
+      </c>
+      <c r="AD40">
         <v>1.18</v>
       </c>
-      <c r="U40">
-        <v>3.05</v>
-      </c>
-      <c r="V40">
-        <v>2</v>
-      </c>
-      <c r="W40">
-        <v>0.71</v>
-      </c>
-      <c r="X40">
-        <v>1.4</v>
-      </c>
-      <c r="Y40">
-        <v>1.11</v>
-      </c>
-      <c r="Z40">
-        <v>2.51</v>
-      </c>
-      <c r="AA40">
-        <v>1.27</v>
-      </c>
-      <c r="AB40">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AC40">
-        <v>4.65</v>
-      </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
       <c r="AE40">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AF40">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="AG40">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AH40">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="41" spans="1:34">
@@ -5032,230 +5041,230 @@
         <v>44999.69791666666</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F41">
-        <v>2.65</v>
+        <v>1.17</v>
       </c>
       <c r="G41">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
       <c r="H41">
-        <v>2.55</v>
+        <v>12.5</v>
       </c>
       <c r="I41">
         <v>1.03</v>
       </c>
       <c r="J41">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K41">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="L41">
-        <v>4.33</v>
+        <v>4.23</v>
       </c>
       <c r="M41">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="N41">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="O41">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P41">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="Q41">
-        <v>1.52</v>
+        <v>1.92</v>
       </c>
       <c r="R41">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="S41">
-        <v>1.47</v>
+        <v>1.09</v>
       </c>
       <c r="T41">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="U41">
-        <v>1.45</v>
+        <v>3.05</v>
       </c>
       <c r="V41">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>1.69</v>
+        <v>0.71</v>
       </c>
       <c r="X41">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="Y41">
-        <v>1.51</v>
+        <v>1.11</v>
       </c>
       <c r="Z41">
-        <v>2.81</v>
+        <v>2.52</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="AD41">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AE41">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AF41">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="AG41">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="AH41">
-        <v>3</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="42" spans="1:34">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2">
         <v>44999.69791666666</v>
       </c>
       <c r="C42">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F42">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="G42">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="H42">
         <v>2.55</v>
       </c>
       <c r="I42">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="J42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K42">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="M42">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="N42">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="O42">
+        <v>1.28</v>
+      </c>
+      <c r="P42">
+        <v>3.34</v>
+      </c>
+      <c r="Q42">
+        <v>1.52</v>
+      </c>
+      <c r="R42">
+        <v>2.45</v>
+      </c>
+      <c r="S42">
+        <v>1.47</v>
+      </c>
+      <c r="T42">
+        <v>1.22</v>
+      </c>
+      <c r="U42">
+        <v>1.45</v>
+      </c>
+      <c r="V42">
+        <v>2.42</v>
+      </c>
+      <c r="W42">
+        <v>1.69</v>
+      </c>
+      <c r="X42">
+        <v>1.3</v>
+      </c>
+      <c r="Y42">
+        <v>1.51</v>
+      </c>
+      <c r="Z42">
+        <v>2.81</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>1.22</v>
+      </c>
+      <c r="AE42">
         <v>1.42</v>
       </c>
-      <c r="P42">
-        <v>2.65</v>
-      </c>
-      <c r="Q42">
-        <v>1.77</v>
-      </c>
-      <c r="R42">
-        <v>1.9</v>
-      </c>
-      <c r="S42">
-        <v>1.43</v>
-      </c>
-      <c r="T42">
-        <v>1.33</v>
-      </c>
-      <c r="U42">
-        <v>1.49</v>
-      </c>
-      <c r="V42">
-        <v>1.06</v>
-      </c>
-      <c r="W42">
-        <v>1.11</v>
-      </c>
-      <c r="X42">
-        <v>1.29</v>
-      </c>
-      <c r="Y42">
-        <v>1.37</v>
-      </c>
-      <c r="Z42">
-        <v>2.66</v>
-      </c>
-      <c r="AA42">
-        <v>2.1</v>
-      </c>
-      <c r="AB42">
-        <v>8</v>
-      </c>
-      <c r="AC42">
-        <v>1.91</v>
-      </c>
-      <c r="AD42">
-        <v>1.2</v>
-      </c>
-      <c r="AE42">
-        <v>1.48</v>
-      </c>
       <c r="AF42">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="AG42">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="AH42">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:34">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2">
-        <v>44999.70833333334</v>
+        <v>44999.69791666666</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F43">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="G43">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H43">
-        <v>2.48</v>
+        <v>2.76</v>
       </c>
       <c r="I43">
         <v>1.06</v>
@@ -5264,284 +5273,284 @@
         <v>10</v>
       </c>
       <c r="K43">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="L43">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="N43">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="O43">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P43">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="Q43">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="T43">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="U43">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="V43">
-        <v>1.71</v>
+        <v>1.06</v>
       </c>
       <c r="W43">
-        <v>1.86</v>
+        <v>1.11</v>
       </c>
       <c r="X43">
-        <v>1.77</v>
+        <v>1.29</v>
       </c>
       <c r="Y43">
-        <v>1.74</v>
+        <v>1.37</v>
       </c>
       <c r="Z43">
-        <v>3.51</v>
+        <v>2.66</v>
       </c>
       <c r="AA43">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="AB43">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC43">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="AD43">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AE43">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="AF43">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="AG43">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AH43">
-        <v>3.42</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="44" spans="1:34">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2">
         <v>44999.70833333334</v>
       </c>
       <c r="C44">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F44">
-        <v>1.73</v>
+        <v>2.85</v>
       </c>
       <c r="G44">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="H44">
-        <v>4.05</v>
+        <v>2.65</v>
       </c>
       <c r="I44">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="J44">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K44">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="L44">
         <v>3.4</v>
       </c>
       <c r="M44">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="N44">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O44">
+        <v>1.4</v>
+      </c>
+      <c r="P44">
+        <v>2.75</v>
+      </c>
+      <c r="Q44">
+        <v>1.8</v>
+      </c>
+      <c r="R44">
+        <v>1.95</v>
+      </c>
+      <c r="S44">
+        <v>1.47</v>
+      </c>
+      <c r="T44">
+        <v>1.28</v>
+      </c>
+      <c r="U44">
         <v>1.41</v>
       </c>
-      <c r="P44">
-        <v>2.65</v>
-      </c>
-      <c r="Q44">
-        <v>1.85</v>
-      </c>
-      <c r="R44">
-        <v>1.83</v>
-      </c>
-      <c r="S44">
-        <v>1.19</v>
-      </c>
-      <c r="T44">
+      <c r="V44">
+        <v>1.71</v>
+      </c>
+      <c r="W44">
+        <v>1.86</v>
+      </c>
+      <c r="X44">
+        <v>1.77</v>
+      </c>
+      <c r="Y44">
+        <v>1.74</v>
+      </c>
+      <c r="Z44">
+        <v>3.51</v>
+      </c>
+      <c r="AA44">
+        <v>2.11</v>
+      </c>
+      <c r="AB44">
+        <v>7.5</v>
+      </c>
+      <c r="AC44">
+        <v>2.08</v>
+      </c>
+      <c r="AD44">
         <v>1.27</v>
       </c>
-      <c r="U44">
-        <v>2.05</v>
-      </c>
-      <c r="V44">
-        <v>2.06</v>
-      </c>
-      <c r="W44">
-        <v>1.33</v>
-      </c>
-      <c r="X44">
-        <v>1.61</v>
-      </c>
-      <c r="Y44">
+      <c r="AE44">
         <v>1.52</v>
       </c>
-      <c r="Z44">
-        <v>3.13</v>
-      </c>
-      <c r="AA44">
-        <v>1.4</v>
-      </c>
-      <c r="AB44">
-        <v>9</v>
-      </c>
-      <c r="AC44">
-        <v>3.92</v>
-      </c>
-      <c r="AD44">
-        <v>1.17</v>
-      </c>
-      <c r="AE44">
-        <v>1.43</v>
-      </c>
       <c r="AF44">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="AG44">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AH44">
-        <v>2.63</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="45" spans="1:34">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2">
         <v>44999.70833333334</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F45">
-        <v>1.31</v>
+        <v>1.76</v>
       </c>
       <c r="G45">
-        <v>4.9</v>
+        <v>3.69</v>
       </c>
       <c r="H45">
-        <v>7.2</v>
+        <v>4.67</v>
       </c>
       <c r="I45">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="J45">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K45">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="L45">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="N45">
-        <v>2.46</v>
+        <v>1.83</v>
       </c>
       <c r="O45">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="P45">
-        <v>3.5</v>
+        <v>2.65</v>
       </c>
       <c r="Q45">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="R45">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S45">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="T45">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="U45">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="V45">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="W45">
-        <v>1.86</v>
+        <v>1.33</v>
       </c>
       <c r="X45">
-        <v>2.71</v>
+        <v>1.61</v>
       </c>
       <c r="Y45">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="Z45">
-        <v>4.28</v>
+        <v>3.13</v>
       </c>
       <c r="AA45">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AB45">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AC45">
-        <v>6.65</v>
+        <v>3.92</v>
       </c>
       <c r="AD45">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AE45">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="AF45">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="AG45">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="AH45">
-        <v>2.98</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="46" spans="1:34">
@@ -5549,183 +5558,183 @@
         <v>51</v>
       </c>
       <c r="B46" s="2">
-        <v>44999.75</v>
+        <v>44999.70833333334</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F46">
+        <v>1.44</v>
+      </c>
+      <c r="G46">
+        <v>4.9</v>
+      </c>
+      <c r="H46">
+        <v>7.5</v>
+      </c>
+      <c r="I46">
+        <v>1.02</v>
+      </c>
+      <c r="J46">
+        <v>19</v>
+      </c>
+      <c r="K46">
+        <v>1.18</v>
+      </c>
+      <c r="L46">
+        <v>5.2</v>
+      </c>
+      <c r="M46">
+        <v>1.58</v>
+      </c>
+      <c r="N46">
+        <v>2.4</v>
+      </c>
+      <c r="O46">
+        <v>1.29</v>
+      </c>
+      <c r="P46">
+        <v>3.5</v>
+      </c>
+      <c r="Q46">
+        <v>1.91</v>
+      </c>
+      <c r="R46">
+        <v>1.91</v>
+      </c>
+      <c r="S46">
+        <v>1.09</v>
+      </c>
+      <c r="T46">
+        <v>1.16</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46">
+        <v>2.14</v>
+      </c>
+      <c r="W46">
+        <v>1.86</v>
+      </c>
+      <c r="X46">
+        <v>2.71</v>
+      </c>
+      <c r="Y46">
+        <v>1.57</v>
+      </c>
+      <c r="Z46">
+        <v>4.28</v>
+      </c>
+      <c r="AA46">
+        <v>1.18</v>
+      </c>
+      <c r="AB46">
+        <v>11.5</v>
+      </c>
+      <c r="AC46">
+        <v>6.65</v>
+      </c>
+      <c r="AD46">
+        <v>1.21</v>
+      </c>
+      <c r="AE46">
+        <v>1.42</v>
+      </c>
+      <c r="AF46">
         <v>1.77</v>
       </c>
-      <c r="G46">
-        <v>3.3</v>
-      </c>
-      <c r="H46">
-        <v>4.55</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>1.5</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>1.91</v>
-      </c>
-      <c r="Y46">
-        <v>1.4</v>
-      </c>
-      <c r="Z46">
-        <v>3.31</v>
-      </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
-      <c r="AC46">
-        <v>0</v>
-      </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <v>0</v>
-      </c>
       <c r="AG46">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="47" spans="1:34">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2">
         <v>44999.75</v>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E47" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="V47">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="W47">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X47">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y47">
-        <v>1.97</v>
+        <v>1.4</v>
       </c>
       <c r="Z47">
-        <v>3.8</v>
+        <v>3.31</v>
       </c>
       <c r="AA47">
         <v>0</v>
@@ -5743,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG47">
         <v>0</v>
@@ -5757,79 +5766,79 @@
         <v>52</v>
       </c>
       <c r="B48" s="2">
-        <v>44999.79166666666</v>
+        <v>44999.75</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F48">
+        <v>2.12</v>
+      </c>
+      <c r="G48">
+        <v>3.2</v>
+      </c>
+      <c r="H48">
+        <v>3.25</v>
+      </c>
+      <c r="I48">
+        <v>1.03</v>
+      </c>
+      <c r="J48">
+        <v>7.9</v>
+      </c>
+      <c r="K48">
+        <v>1.34</v>
+      </c>
+      <c r="L48">
+        <v>2.88</v>
+      </c>
+      <c r="M48">
+        <v>2.13</v>
+      </c>
+      <c r="N48">
+        <v>1.7</v>
+      </c>
+      <c r="O48">
         <v>1.44</v>
       </c>
-      <c r="G48">
-        <v>3.7</v>
-      </c>
-      <c r="H48">
-        <v>6.9</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
+      <c r="P48">
+        <v>2.59</v>
+      </c>
+      <c r="Q48">
         <v>1.83</v>
       </c>
-      <c r="N48">
-        <v>1.91</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
       <c r="R48">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X48">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Y48">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="Z48">
-        <v>2.74</v>
+        <v>3.8</v>
       </c>
       <c r="AA48">
         <v>0</v>
@@ -5858,103 +5867,103 @@
     </row>
     <row r="49" spans="1:34">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2">
-        <v>44999.83333333334</v>
+        <v>44999.79166666666</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F49">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="G49">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H49">
-        <v>4.9</v>
+        <v>6.9</v>
       </c>
       <c r="I49">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>2.28</v>
+        <v>1.86</v>
       </c>
       <c r="N49">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="O49">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
         <v>2</v>
       </c>
-      <c r="V49">
-        <v>1.5</v>
-      </c>
       <c r="W49">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="X49">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="Y49">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="Z49">
-        <v>3.07</v>
+        <v>2.74</v>
       </c>
       <c r="AA49">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AB49">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AC49">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="AD49">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AE49">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AF49">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="AG49">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AH49">
         <v>0</v>
@@ -5962,111 +5971,111 @@
     </row>
     <row r="50" spans="1:34">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B50" s="2">
         <v>44999.83333333334</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E50" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F50">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G50">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H50">
-        <v>4.35</v>
+        <v>5</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M50">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="N50">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="W50">
-        <v>3</v>
+        <v>0.67</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="Y50">
-        <v>1.88</v>
+        <v>1.31</v>
       </c>
       <c r="Z50">
-        <v>1.88</v>
+        <v>3.07</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE50">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="51" spans="1:34">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2">
         <v>44999.83333333334</v>
@@ -6075,58 +6084,58 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V51">
         <v>3</v>
@@ -6135,13 +6144,13 @@
         <v>3</v>
       </c>
       <c r="X51">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="Z51">
-        <v>2.9</v>
+        <v>1.88</v>
       </c>
       <c r="AA51">
         <v>0</v>
@@ -6170,82 +6179,82 @@
     </row>
     <row r="52" spans="1:34">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>44999.85416666666</v>
+        <v>44999.83333333334</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F52">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="G52">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
       <c r="H52">
+        <v>4.18</v>
+      </c>
+      <c r="I52">
+        <v>1.05</v>
+      </c>
+      <c r="J52">
+        <v>9</v>
+      </c>
+      <c r="K52">
+        <v>1.33</v>
+      </c>
+      <c r="L52">
+        <v>3.05</v>
+      </c>
+      <c r="M52">
+        <v>2.05</v>
+      </c>
+      <c r="N52">
+        <v>1.72</v>
+      </c>
+      <c r="O52">
+        <v>1.38</v>
+      </c>
+      <c r="P52">
+        <v>2.75</v>
+      </c>
+      <c r="Q52">
+        <v>1.98</v>
+      </c>
+      <c r="R52">
+        <v>1.76</v>
+      </c>
+      <c r="S52">
+        <v>1.13</v>
+      </c>
+      <c r="T52">
+        <v>1.26</v>
+      </c>
+      <c r="U52">
+        <v>2.02</v>
+      </c>
+      <c r="V52">
         <v>3</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0.5</v>
-      </c>
       <c r="W52">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="X52">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Y52">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="Z52">
-        <v>3.26</v>
+        <v>2.9</v>
       </c>
       <c r="AA52">
         <v>0</v>
@@ -6274,7 +6283,7 @@
     </row>
     <row r="53" spans="1:34">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2">
         <v>44999.85416666666</v>
@@ -6283,73 +6292,73 @@
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E53" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F53">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="G53">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="H53">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V53">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="W53">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X53">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="Y53">
-        <v>1.06</v>
+        <v>1.41</v>
       </c>
       <c r="Z53">
-        <v>3.05</v>
+        <v>3.26</v>
       </c>
       <c r="AA53">
         <v>0</v>
@@ -6367,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="AF53">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG53">
         <v>0</v>
@@ -6378,105 +6387,209 @@
     </row>
     <row r="54" spans="1:34">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2">
+        <v>44999.85416666666</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54">
+        <v>2.54</v>
+      </c>
+      <c r="G54">
+        <v>3.03</v>
+      </c>
+      <c r="H54">
+        <v>2.73</v>
+      </c>
+      <c r="I54">
+        <v>1.03</v>
+      </c>
+      <c r="J54">
+        <v>10.25</v>
+      </c>
+      <c r="K54">
+        <v>1.34</v>
+      </c>
+      <c r="L54">
+        <v>2.95</v>
+      </c>
+      <c r="M54">
+        <v>2.15</v>
+      </c>
+      <c r="N54">
+        <v>1.63</v>
+      </c>
+      <c r="O54">
+        <v>1.46</v>
+      </c>
+      <c r="P54">
+        <v>2.55</v>
+      </c>
+      <c r="Q54">
+        <v>1.78</v>
+      </c>
+      <c r="R54">
+        <v>1.9</v>
+      </c>
+      <c r="S54">
+        <v>1.43</v>
+      </c>
+      <c r="T54">
+        <v>1.34</v>
+      </c>
+      <c r="U54">
+        <v>1.42</v>
+      </c>
+      <c r="V54">
+        <v>3</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>1.99</v>
+      </c>
+      <c r="Y54">
+        <v>1.06</v>
+      </c>
+      <c r="Z54">
+        <v>3.05</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2">
         <v>44999.875</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>1</v>
       </c>
-      <c r="D54" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" t="s">
-        <v>160</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
+      <c r="D55" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" t="s">
+        <v>163</v>
+      </c>
+      <c r="F55">
+        <v>3.15</v>
+      </c>
+      <c r="G55">
+        <v>2.99</v>
+      </c>
+      <c r="H55">
+        <v>2.28</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1.49</v>
+      </c>
+      <c r="L55">
+        <v>2.44</v>
+      </c>
+      <c r="M55">
+        <v>2.53</v>
+      </c>
+      <c r="N55">
+        <v>1.42</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-03-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="167">
   <si>
     <t>League</t>
   </si>
@@ -160,12 +160,15 @@
     <t>England EFL League Two</t>
   </si>
   <si>
+    <t>Northern Ireland NIFL Championship</t>
+  </si>
+  <si>
+    <t>Northern Ireland NIFL Premiership</t>
+  </si>
+  <si>
     <t>England EFL League One</t>
   </si>
   <si>
-    <t>Northern Ireland NIFL Premiership</t>
-  </si>
-  <si>
     <t>Scotland League Two</t>
   </si>
   <si>
@@ -280,51 +283,54 @@
     <t>Sutton United</t>
   </si>
   <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Newington Youth</t>
+  </si>
+  <si>
+    <t>Glentoran</t>
+  </si>
+  <si>
+    <t>Accrington Stanley</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Dumbarton</t>
+  </si>
+  <si>
+    <t>Bristol Rovers</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Northampton Town</t>
+  </si>
+  <si>
     <t>Stevenage</t>
   </si>
   <si>
-    <t>Northampton Town</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Bristol Rovers</t>
-  </si>
-  <si>
     <t>Burton Albion</t>
   </si>
   <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
-    <t>Accrington Stanley</t>
-  </si>
-  <si>
-    <t>Glentoran</t>
-  </si>
-  <si>
-    <t>Dumbarton</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
   </si>
   <si>
     <t>Porto</t>
   </si>
   <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Manchester City</t>
+    <t>Santiago Morning</t>
   </si>
   <si>
     <t>Cobreloa</t>
   </si>
   <si>
-    <t>Santiago Morning</t>
-  </si>
-  <si>
     <t>Guaraní</t>
   </si>
   <si>
@@ -337,12 +343,12 @@
     <t>Maringá</t>
   </si>
   <si>
+    <t>San Luis</t>
+  </si>
+  <si>
     <t>Deportes Santa Cruz</t>
   </si>
   <si>
-    <t>San Luis</t>
-  </si>
-  <si>
     <t>Cuniburo</t>
   </si>
   <si>
@@ -442,51 +448,54 @@
     <t>Grimsby Town</t>
   </si>
   <si>
+    <t>Queens Park Rangers</t>
+  </si>
+  <si>
+    <t>Ards</t>
+  </si>
+  <si>
+    <t>Ballymena United</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Charlton Athletic</t>
+  </si>
+  <si>
+    <t>Stirling Albion</t>
+  </si>
+  <si>
+    <t>Wycombe Wanderers</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Mansfield Town</t>
+  </si>
+  <si>
     <t>Crewe Alexandra</t>
   </si>
   <si>
-    <t>Mansfield Town</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon</t>
-  </si>
-  <si>
-    <t>Wycombe Wanderers</t>
-  </si>
-  <si>
     <t>Peterborough United</t>
   </si>
   <si>
-    <t>Charlton Athletic</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Ballymena United</t>
-  </si>
-  <si>
-    <t>Stirling Albion</t>
-  </si>
-  <si>
-    <t>Queens Park Rangers</t>
+    <t>Stoke City</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
   </si>
   <si>
     <t>Inter Milan</t>
   </si>
   <si>
-    <t>Stoke City</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
+    <t>Unión San Felipe</t>
   </si>
   <si>
     <t>Univ. Concepción</t>
   </si>
   <si>
-    <t>Unión San Felipe</t>
-  </si>
-  <si>
     <t>Tacuary</t>
   </si>
   <si>
@@ -499,10 +508,10 @@
     <t>Marcílio Dias</t>
   </si>
   <si>
+    <t>Santiago Wanderers</t>
+  </si>
+  <si>
     <t>Barnechea</t>
-  </si>
-  <si>
-    <t>Santiago Wanderers</t>
   </si>
   <si>
     <t>América de Quito</t>
@@ -867,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH55"/>
+  <dimension ref="A1:AH56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -988,10 +997,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F2">
         <v>2.62</v>
@@ -1042,10 +1051,10 @@
         <v>1.47</v>
       </c>
       <c r="V2">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="W2">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="X2">
         <v>1.88</v>
@@ -1092,10 +1101,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F3">
         <v>1.75</v>
@@ -1146,10 +1155,10 @@
         <v>2.09</v>
       </c>
       <c r="V3">
+        <v>1.25</v>
+      </c>
+      <c r="W3">
         <v>1.33</v>
-      </c>
-      <c r="W3">
-        <v>1.5</v>
       </c>
       <c r="X3">
         <v>1.35</v>
@@ -1196,10 +1205,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F4">
         <v>1.68</v>
@@ -1300,10 +1309,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F5">
         <v>2.05</v>
@@ -1354,10 +1363,10 @@
         <v>1.67</v>
       </c>
       <c r="V5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="X5">
         <v>1.42</v>
@@ -1398,16 +1407,16 @@
         <v>37</v>
       </c>
       <c r="B6" s="2">
-        <v>44998.88194444445</v>
+        <v>44998.89236111111</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F6">
         <v>1.8</v>
@@ -1458,10 +1467,10 @@
         <v>1.85</v>
       </c>
       <c r="V6">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="W6">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="X6">
         <v>1.91</v>
@@ -1485,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF6">
         <v>1.83</v>
@@ -1508,10 +1517,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F7">
         <v>2.5</v>
@@ -1562,10 +1571,10 @@
         <v>1.49</v>
       </c>
       <c r="V7">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="X7">
         <v>1.69</v>
@@ -1612,10 +1621,10 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F8">
         <v>1.5</v>
@@ -1639,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="N8">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1716,19 +1725,19 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F9">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1743,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="N9">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1820,19 +1829,19 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F10">
-        <v>4.28</v>
+        <v>3.38</v>
       </c>
       <c r="G10">
-        <v>3.38</v>
+        <v>3.25</v>
       </c>
       <c r="H10">
-        <v>1.78</v>
+        <v>2.07</v>
       </c>
       <c r="I10">
         <v>1.03</v>
@@ -1847,10 +1856,10 @@
         <v>2.98</v>
       </c>
       <c r="M10">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N10">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="O10">
         <v>1.41</v>
@@ -1924,19 +1933,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F11">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="G11">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I11">
         <v>1.06</v>
@@ -1993,28 +2002,28 @@
         <v>2.89</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -2028,10 +2037,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F12">
         <v>1.8</v>
@@ -2049,10 +2058,10 @@
         <v>5</v>
       </c>
       <c r="K12">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="L12">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="M12">
         <v>2.9</v>
@@ -2097,28 +2106,28 @@
         <v>2.85</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE12">
         <v>1.88</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -2132,19 +2141,19 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F13">
-        <v>2.82</v>
+        <v>2.69</v>
       </c>
       <c r="G13">
-        <v>3.07</v>
+        <v>2.91</v>
       </c>
       <c r="H13">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="I13">
         <v>1.06</v>
@@ -2236,19 +2245,19 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F14">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="G14">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="H14">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="I14">
         <v>1.06</v>
@@ -2340,19 +2349,19 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F15">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G15">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="H15">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="I15">
         <v>1.05</v>
@@ -2444,19 +2453,19 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F16">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G16">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H16">
-        <v>2.45</v>
+        <v>2.29</v>
       </c>
       <c r="I16">
         <v>1.05</v>
@@ -2548,19 +2557,19 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F17">
-        <v>2.85</v>
+        <v>3.12</v>
       </c>
       <c r="G17">
-        <v>3.4</v>
+        <v>3.58</v>
       </c>
       <c r="H17">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="I17">
         <v>1.05</v>
@@ -2652,19 +2661,19 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F18">
-        <v>2.9</v>
+        <v>3.26</v>
       </c>
       <c r="G18">
-        <v>3.6</v>
+        <v>3.62</v>
       </c>
       <c r="H18">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="I18">
         <v>1.04</v>
@@ -2756,19 +2765,19 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F19">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="G19">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="H19">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="I19">
         <v>1.1</v>
@@ -2860,19 +2869,19 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F20">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="G20">
-        <v>3.5</v>
+        <v>3.28</v>
       </c>
       <c r="H20">
-        <v>2.7</v>
+        <v>3.08</v>
       </c>
       <c r="I20">
         <v>1.05</v>
@@ -2964,19 +2973,19 @@
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F21">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="G21">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="I21">
         <v>1.05</v>
@@ -3068,19 +3077,19 @@
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F22">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="G22">
-        <v>3.5</v>
+        <v>3.34</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I22">
         <v>1.05</v>
@@ -3172,10 +3181,10 @@
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F23">
         <v>2.55</v>
@@ -3276,19 +3285,19 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F24">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="G24">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="H24">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="I24">
         <v>1.03</v>
@@ -3380,19 +3389,19 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F25">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="G25">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H25">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="I25">
         <v>1.06</v>
@@ -3484,19 +3493,19 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F26">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="G26">
-        <v>3.25</v>
+        <v>3.12</v>
       </c>
       <c r="H26">
-        <v>2.8</v>
+        <v>3.08</v>
       </c>
       <c r="I26">
         <v>1.03</v>
@@ -3588,19 +3597,19 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F27">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="G27">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H27">
-        <v>2.2</v>
+        <v>1.72</v>
       </c>
       <c r="I27">
         <v>1.03</v>
@@ -3692,19 +3701,19 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F28">
-        <v>3.26</v>
+        <v>3.48</v>
       </c>
       <c r="G28">
-        <v>3.36</v>
+        <v>3.3</v>
       </c>
       <c r="H28">
-        <v>2.23</v>
+        <v>2.16</v>
       </c>
       <c r="I28">
         <v>1.07</v>
@@ -3796,19 +3805,19 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F29">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="G29">
-        <v>3.73</v>
+        <v>3.42</v>
       </c>
       <c r="H29">
-        <v>4.97</v>
+        <v>4.7</v>
       </c>
       <c r="I29">
         <v>1.06</v>
@@ -3900,19 +3909,19 @@
         <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F30">
-        <v>2.61</v>
+        <v>2.72</v>
       </c>
       <c r="G30">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="H30">
-        <v>2.76</v>
+        <v>2.71</v>
       </c>
       <c r="I30">
         <v>1.08</v>
@@ -4004,19 +4013,19 @@
         <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F31">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G31">
-        <v>3.54</v>
+        <v>3.45</v>
       </c>
       <c r="H31">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="I31">
         <v>1.06</v>
@@ -4108,19 +4117,19 @@
         <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F32">
-        <v>2.4</v>
+        <v>2.07</v>
       </c>
       <c r="G32">
-        <v>3.1</v>
+        <v>3.38</v>
       </c>
       <c r="H32">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I32">
         <v>1.08</v>
@@ -4212,19 +4221,19 @@
         <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F33">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="G33">
-        <v>3.2</v>
+        <v>3.36</v>
       </c>
       <c r="H33">
-        <v>3.6</v>
+        <v>3.62</v>
       </c>
       <c r="I33">
         <v>1.09</v>
@@ -4307,507 +4316,507 @@
     </row>
     <row r="34" spans="1:34">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2">
         <v>44999.69791666666</v>
       </c>
       <c r="C34">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F34">
-        <v>1.36</v>
+        <v>2.53</v>
       </c>
       <c r="G34">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="H34">
-        <v>9.5</v>
+        <v>2.9</v>
       </c>
       <c r="I34">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="J34">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K34">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M34">
+        <v>2.05</v>
+      </c>
+      <c r="N34">
+        <v>1.78</v>
+      </c>
+      <c r="O34">
+        <v>1.42</v>
+      </c>
+      <c r="P34">
+        <v>2.65</v>
+      </c>
+      <c r="Q34">
+        <v>1.77</v>
+      </c>
+      <c r="R34">
         <v>1.9</v>
       </c>
-      <c r="N34">
-        <v>1.87</v>
-      </c>
-      <c r="O34">
-        <v>1.34</v>
-      </c>
-      <c r="P34">
-        <v>3</v>
-      </c>
-      <c r="Q34">
-        <v>2.2</v>
-      </c>
-      <c r="R34">
-        <v>1.64</v>
-      </c>
       <c r="S34">
-        <v>1.05</v>
+        <v>1.43</v>
       </c>
       <c r="T34">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="U34">
-        <v>3.1</v>
+        <v>1.49</v>
       </c>
       <c r="V34">
-        <v>2.35</v>
+        <v>1.06</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="X34">
-        <v>1.78</v>
+        <v>1.29</v>
       </c>
       <c r="Y34">
-        <v>0.96</v>
+        <v>1.37</v>
       </c>
       <c r="Z34">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="AA34">
-        <v>1.13</v>
+        <v>2.1</v>
       </c>
       <c r="AB34">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AC34">
-        <v>7.7</v>
+        <v>1.91</v>
       </c>
       <c r="AD34">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AE34">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AF34">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="AG34">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AH34">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="35" spans="1:34">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2">
         <v>44999.69791666666</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F35">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>1.71</v>
+        <v>0.71</v>
       </c>
       <c r="W35">
-        <v>1.71</v>
+        <v>1.07</v>
       </c>
       <c r="X35">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="Y35">
-        <v>1.54</v>
+        <v>1.72</v>
       </c>
       <c r="Z35">
-        <v>2.98</v>
+        <v>3.28</v>
       </c>
       <c r="AA35">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AD35">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG35">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AH35">
-        <v>3.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:34">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2">
         <v>44999.69791666666</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F36">
+        <v>1.18</v>
+      </c>
+      <c r="G36">
+        <v>6.4</v>
+      </c>
+      <c r="H36">
+        <v>13.75</v>
+      </c>
+      <c r="I36">
+        <v>1.03</v>
+      </c>
+      <c r="J36">
+        <v>13</v>
+      </c>
+      <c r="K36">
+        <v>1.21</v>
+      </c>
+      <c r="L36">
+        <v>4.23</v>
+      </c>
+      <c r="M36">
+        <v>1.62</v>
+      </c>
+      <c r="N36">
         <v>2.2</v>
       </c>
-      <c r="G36">
-        <v>3.1</v>
-      </c>
-      <c r="H36">
-        <v>3.6</v>
-      </c>
-      <c r="I36">
-        <v>1.08</v>
-      </c>
-      <c r="J36">
-        <v>6.5</v>
-      </c>
-      <c r="K36">
-        <v>1.37</v>
-      </c>
-      <c r="L36">
-        <v>2.8</v>
-      </c>
-      <c r="M36">
-        <v>2.4</v>
-      </c>
-      <c r="N36">
-        <v>1.57</v>
-      </c>
       <c r="O36">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="P36">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="Q36">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R36">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="T36">
+        <v>1.18</v>
+      </c>
+      <c r="U36">
+        <v>3.05</v>
+      </c>
+      <c r="V36">
+        <v>2</v>
+      </c>
+      <c r="W36">
+        <v>0.71</v>
+      </c>
+      <c r="X36">
+        <v>1.41</v>
+      </c>
+      <c r="Y36">
+        <v>1.11</v>
+      </c>
+      <c r="Z36">
+        <v>2.52</v>
+      </c>
+      <c r="AA36">
+        <v>1.27</v>
+      </c>
+      <c r="AB36">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AC36">
+        <v>4.65</v>
+      </c>
+      <c r="AD36">
+        <v>1.29</v>
+      </c>
+      <c r="AE36">
         <v>1.33</v>
       </c>
-      <c r="U36">
-        <v>1.62</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36">
-        <v>1</v>
-      </c>
-      <c r="X36">
-        <v>1.44</v>
-      </c>
-      <c r="Y36">
-        <v>1.13</v>
-      </c>
-      <c r="Z36">
-        <v>2.57</v>
-      </c>
-      <c r="AA36">
-        <v>1.51</v>
-      </c>
-      <c r="AB36">
-        <v>8.5</v>
-      </c>
-      <c r="AC36">
-        <v>3.16</v>
-      </c>
-      <c r="AD36">
-        <v>1.3</v>
-      </c>
-      <c r="AE36">
-        <v>1.57</v>
-      </c>
       <c r="AF36">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="AG36">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="AH36">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="37" spans="1:34">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37" s="2">
         <v>44999.69791666666</v>
       </c>
       <c r="C37">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F37">
-        <v>2.95</v>
+        <v>3.44</v>
       </c>
       <c r="G37">
-        <v>3.5</v>
+        <v>3.24</v>
       </c>
       <c r="H37">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="I37">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J37">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="K37">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="L37">
         <v>3.5</v>
       </c>
       <c r="M37">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="N37">
         <v>1.95</v>
       </c>
       <c r="O37">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P37">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q37">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R37">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S37">
+        <v>1.62</v>
+      </c>
+      <c r="T37">
+        <v>1.33</v>
+      </c>
+      <c r="U37">
+        <v>1.36</v>
+      </c>
+      <c r="V37">
+        <v>1.25</v>
+      </c>
+      <c r="W37">
+        <v>1.29</v>
+      </c>
+      <c r="X37">
         <v>1.45</v>
       </c>
-      <c r="T37">
-        <v>1.25</v>
-      </c>
-      <c r="U37">
-        <v>1.47</v>
-      </c>
-      <c r="V37">
-        <v>1.24</v>
-      </c>
-      <c r="W37">
-        <v>1.35</v>
-      </c>
-      <c r="X37">
-        <v>1.5</v>
-      </c>
       <c r="Y37">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="Z37">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AA37">
-        <v>1.71</v>
+        <v>2.43</v>
       </c>
       <c r="AB37">
         <v>7.5</v>
       </c>
       <c r="AC37">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="AD37">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AE37">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AF37">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AG37">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="AH37">
-        <v>2.15</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="38" spans="1:34">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2">
         <v>44999.69791666666</v>
       </c>
       <c r="C38">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F38">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="G38">
-        <v>3.6</v>
+        <v>3.38</v>
       </c>
       <c r="H38">
-        <v>2.1</v>
+        <v>2.21</v>
       </c>
       <c r="I38">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J38">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="K38">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="L38">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="N38">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="O38">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="P38">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="Q38">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="R38">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="T38">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="U38">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="V38">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="W38">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="X38">
-        <v>1.56</v>
+        <v>1.32</v>
       </c>
       <c r="Y38">
-        <v>1.41</v>
+        <v>1.15</v>
       </c>
       <c r="Z38">
-        <v>2.97</v>
+        <v>2.47</v>
       </c>
       <c r="AA38">
-        <v>1.89</v>
+        <v>2.9</v>
       </c>
       <c r="AB38">
         <v>7.5</v>
       </c>
       <c r="AC38">
-        <v>2.3</v>
+        <v>1.58</v>
       </c>
       <c r="AD38">
         <v>1.2</v>
@@ -4827,626 +4836,626 @@
     </row>
     <row r="39" spans="1:34">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2">
         <v>44999.69791666666</v>
       </c>
       <c r="C39">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>2.54</v>
       </c>
       <c r="G39">
-        <v>3.5</v>
+        <v>3.34</v>
       </c>
       <c r="H39">
-        <v>2.25</v>
+        <v>2.62</v>
       </c>
       <c r="I39">
         <v>1.03</v>
       </c>
       <c r="J39">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="K39">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="M39">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="N39">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="O39">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="P39">
-        <v>2.8</v>
+        <v>3.34</v>
       </c>
       <c r="Q39">
-        <v>1.87</v>
+        <v>1.52</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.47</v>
       </c>
       <c r="T39">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U39">
+        <v>1.45</v>
+      </c>
+      <c r="V39">
+        <v>2.42</v>
+      </c>
+      <c r="W39">
+        <v>1.69</v>
+      </c>
+      <c r="X39">
+        <v>1.3</v>
+      </c>
+      <c r="Y39">
+        <v>1.51</v>
+      </c>
+      <c r="Z39">
+        <v>2.81</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
         <v>1.22</v>
       </c>
-      <c r="V39">
-        <v>1.39</v>
-      </c>
-      <c r="W39">
-        <v>1.06</v>
-      </c>
-      <c r="X39">
-        <v>1.32</v>
-      </c>
-      <c r="Y39">
-        <v>1.15</v>
-      </c>
-      <c r="Z39">
-        <v>2.47</v>
-      </c>
-      <c r="AA39">
-        <v>2.9</v>
-      </c>
-      <c r="AB39">
-        <v>7.5</v>
-      </c>
-      <c r="AC39">
-        <v>1.58</v>
-      </c>
-      <c r="AD39">
-        <v>1.2</v>
-      </c>
       <c r="AE39">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AF39">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AG39">
-        <v>2.12</v>
+        <v>2.23</v>
       </c>
       <c r="AH39">
-        <v>2.85</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:34">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B40" s="2">
         <v>44999.69791666666</v>
       </c>
       <c r="C40">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F40">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="G40">
         <v>3.5</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="I40">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J40">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="K40">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="L40">
         <v>3.5</v>
       </c>
       <c r="M40">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="N40">
         <v>1.95</v>
       </c>
       <c r="O40">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P40">
+        <v>2.8</v>
+      </c>
+      <c r="Q40">
+        <v>1.65</v>
+      </c>
+      <c r="R40">
+        <v>2.1</v>
+      </c>
+      <c r="S40">
+        <v>1.45</v>
+      </c>
+      <c r="T40">
+        <v>1.25</v>
+      </c>
+      <c r="U40">
+        <v>1.47</v>
+      </c>
+      <c r="V40">
+        <v>1.24</v>
+      </c>
+      <c r="W40">
+        <v>1.35</v>
+      </c>
+      <c r="X40">
+        <v>1.5</v>
+      </c>
+      <c r="Y40">
+        <v>1.5</v>
+      </c>
+      <c r="Z40">
         <v>3</v>
       </c>
-      <c r="Q40">
-        <v>1.68</v>
-      </c>
-      <c r="R40">
-        <v>2.12</v>
-      </c>
-      <c r="S40">
-        <v>1.62</v>
-      </c>
-      <c r="T40">
-        <v>1.33</v>
-      </c>
-      <c r="U40">
-        <v>1.36</v>
-      </c>
-      <c r="V40">
-        <v>1.25</v>
-      </c>
-      <c r="W40">
-        <v>1.29</v>
-      </c>
-      <c r="X40">
-        <v>1.45</v>
-      </c>
-      <c r="Y40">
-        <v>1.43</v>
-      </c>
-      <c r="Z40">
-        <v>2.88</v>
-      </c>
       <c r="AA40">
-        <v>2.43</v>
+        <v>1.71</v>
       </c>
       <c r="AB40">
         <v>7.5</v>
       </c>
       <c r="AC40">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="AD40">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AE40">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AF40">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AG40">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="AH40">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="41" spans="1:34">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2">
         <v>44999.69791666666</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F41">
-        <v>1.17</v>
+        <v>1.9</v>
       </c>
       <c r="G41">
-        <v>5.6</v>
+        <v>3.3</v>
       </c>
       <c r="H41">
-        <v>12.5</v>
+        <v>4.4</v>
       </c>
       <c r="I41">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="J41">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="K41">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="L41">
-        <v>4.23</v>
+        <v>2.8</v>
       </c>
       <c r="M41">
-        <v>1.64</v>
+        <v>2.4</v>
       </c>
       <c r="N41">
-        <v>2.13</v>
+        <v>1.57</v>
       </c>
       <c r="O41">
+        <v>1.47</v>
+      </c>
+      <c r="P41">
+        <v>2.45</v>
+      </c>
+      <c r="Q41">
+        <v>1.9</v>
+      </c>
+      <c r="R41">
+        <v>1.8</v>
+      </c>
+      <c r="S41">
+        <v>1.25</v>
+      </c>
+      <c r="T41">
+        <v>1.33</v>
+      </c>
+      <c r="U41">
+        <v>1.62</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>1.44</v>
+      </c>
+      <c r="Y41">
+        <v>1.13</v>
+      </c>
+      <c r="Z41">
+        <v>2.57</v>
+      </c>
+      <c r="AA41">
+        <v>1.51</v>
+      </c>
+      <c r="AB41">
+        <v>8.5</v>
+      </c>
+      <c r="AC41">
+        <v>3.16</v>
+      </c>
+      <c r="AD41">
         <v>1.3</v>
       </c>
-      <c r="P41">
-        <v>3.2</v>
-      </c>
-      <c r="Q41">
-        <v>1.92</v>
-      </c>
-      <c r="R41">
-        <v>1.85</v>
-      </c>
-      <c r="S41">
-        <v>1.09</v>
-      </c>
-      <c r="T41">
-        <v>1.18</v>
-      </c>
-      <c r="U41">
-        <v>3.05</v>
-      </c>
-      <c r="V41">
+      <c r="AE41">
+        <v>1.57</v>
+      </c>
+      <c r="AF41">
         <v>2</v>
       </c>
-      <c r="W41">
-        <v>0.71</v>
-      </c>
-      <c r="X41">
-        <v>1.41</v>
-      </c>
-      <c r="Y41">
-        <v>1.11</v>
-      </c>
-      <c r="Z41">
-        <v>2.52</v>
-      </c>
-      <c r="AA41">
-        <v>1.27</v>
-      </c>
-      <c r="AB41">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AC41">
-        <v>4.65</v>
-      </c>
-      <c r="AD41">
-        <v>1.29</v>
-      </c>
-      <c r="AE41">
-        <v>1.33</v>
-      </c>
-      <c r="AF41">
-        <v>1.59</v>
-      </c>
       <c r="AG41">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="AH41">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="42" spans="1:34">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2">
         <v>44999.69791666666</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E42" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F42">
+        <v>2.3</v>
+      </c>
+      <c r="G42">
+        <v>3.26</v>
+      </c>
+      <c r="H42">
+        <v>3.16</v>
+      </c>
+      <c r="I42">
+        <v>1.06</v>
+      </c>
+      <c r="J42">
+        <v>9.5</v>
+      </c>
+      <c r="K42">
+        <v>1.36</v>
+      </c>
+      <c r="L42">
+        <v>3.1</v>
+      </c>
+      <c r="M42">
+        <v>2.15</v>
+      </c>
+      <c r="N42">
+        <v>1.68</v>
+      </c>
+      <c r="O42">
+        <v>1.42</v>
+      </c>
+      <c r="P42">
         <v>2.65</v>
       </c>
-      <c r="G42">
-        <v>3.2</v>
-      </c>
-      <c r="H42">
-        <v>2.55</v>
-      </c>
-      <c r="I42">
-        <v>1.03</v>
-      </c>
-      <c r="J42">
-        <v>11</v>
-      </c>
-      <c r="K42">
-        <v>1.2</v>
-      </c>
-      <c r="L42">
-        <v>4.33</v>
-      </c>
-      <c r="M42">
-        <v>1.7</v>
-      </c>
-      <c r="N42">
+      <c r="Q42">
+        <v>1.85</v>
+      </c>
+      <c r="R42">
+        <v>1.9</v>
+      </c>
+      <c r="S42">
+        <v>1.4</v>
+      </c>
+      <c r="T42">
+        <v>1.28</v>
+      </c>
+      <c r="U42">
+        <v>1.57</v>
+      </c>
+      <c r="V42">
+        <v>1.71</v>
+      </c>
+      <c r="W42">
+        <v>1.71</v>
+      </c>
+      <c r="X42">
+        <v>1.44</v>
+      </c>
+      <c r="Y42">
+        <v>1.54</v>
+      </c>
+      <c r="Z42">
+        <v>2.98</v>
+      </c>
+      <c r="AA42">
         <v>2.1</v>
       </c>
-      <c r="O42">
-        <v>1.28</v>
-      </c>
-      <c r="P42">
-        <v>3.34</v>
-      </c>
-      <c r="Q42">
-        <v>1.52</v>
-      </c>
-      <c r="R42">
-        <v>2.45</v>
-      </c>
-      <c r="S42">
-        <v>1.47</v>
-      </c>
-      <c r="T42">
-        <v>1.22</v>
-      </c>
-      <c r="U42">
-        <v>1.45</v>
-      </c>
-      <c r="V42">
-        <v>2.42</v>
-      </c>
-      <c r="W42">
-        <v>1.69</v>
-      </c>
-      <c r="X42">
+      <c r="AB42">
+        <v>7.5</v>
+      </c>
+      <c r="AC42">
+        <v>1.95</v>
+      </c>
+      <c r="AD42">
         <v>1.3</v>
       </c>
-      <c r="Y42">
-        <v>1.51</v>
-      </c>
-      <c r="Z42">
-        <v>2.81</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>1.22</v>
-      </c>
       <c r="AE42">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AF42">
         <v>2</v>
       </c>
       <c r="AG42">
-        <v>2.23</v>
+        <v>2.7</v>
       </c>
       <c r="AH42">
-        <v>3</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="43" spans="1:34">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2">
         <v>44999.69791666666</v>
       </c>
       <c r="C43">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F43">
-        <v>2.61</v>
+        <v>1.38</v>
       </c>
       <c r="G43">
-        <v>3.25</v>
+        <v>4.64</v>
       </c>
       <c r="H43">
-        <v>2.76</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I43">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="J43">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K43">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="L43">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="N43">
+        <v>1.87</v>
+      </c>
+      <c r="O43">
+        <v>1.34</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="Q43">
+        <v>2.2</v>
+      </c>
+      <c r="R43">
+        <v>1.64</v>
+      </c>
+      <c r="S43">
+        <v>1.05</v>
+      </c>
+      <c r="T43">
+        <v>1.14</v>
+      </c>
+      <c r="U43">
+        <v>3.1</v>
+      </c>
+      <c r="V43">
+        <v>2.35</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
         <v>1.78</v>
       </c>
-      <c r="O43">
-        <v>1.42</v>
-      </c>
-      <c r="P43">
-        <v>2.65</v>
-      </c>
-      <c r="Q43">
-        <v>1.77</v>
-      </c>
-      <c r="R43">
-        <v>1.9</v>
-      </c>
-      <c r="S43">
-        <v>1.43</v>
-      </c>
-      <c r="T43">
-        <v>1.33</v>
-      </c>
-      <c r="U43">
-        <v>1.49</v>
-      </c>
-      <c r="V43">
-        <v>1.06</v>
-      </c>
-      <c r="W43">
-        <v>1.11</v>
-      </c>
-      <c r="X43">
-        <v>1.29</v>
-      </c>
       <c r="Y43">
-        <v>1.37</v>
+        <v>0.96</v>
       </c>
       <c r="Z43">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="AA43">
-        <v>2.1</v>
+        <v>1.13</v>
       </c>
       <c r="AB43">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AC43">
-        <v>1.91</v>
+        <v>7.7</v>
       </c>
       <c r="AD43">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AE43">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AF43">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="AG43">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AH43">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="44" spans="1:34">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2">
-        <v>44999.70833333334</v>
+        <v>44999.69791666666</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F44">
-        <v>2.85</v>
+        <v>3.22</v>
       </c>
       <c r="G44">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="H44">
-        <v>2.65</v>
+        <v>2.19</v>
       </c>
       <c r="I44">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="J44">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K44">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="L44">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M44">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="N44">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O44">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="P44">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="Q44">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="S44">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="T44">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="U44">
+        <v>1.42</v>
+      </c>
+      <c r="V44">
+        <v>1.35</v>
+      </c>
+      <c r="W44">
+        <v>1.12</v>
+      </c>
+      <c r="X44">
+        <v>1.56</v>
+      </c>
+      <c r="Y44">
         <v>1.41</v>
       </c>
-      <c r="V44">
-        <v>1.71</v>
-      </c>
-      <c r="W44">
-        <v>1.86</v>
-      </c>
-      <c r="X44">
-        <v>1.77</v>
-      </c>
-      <c r="Y44">
-        <v>1.74</v>
-      </c>
       <c r="Z44">
-        <v>3.51</v>
+        <v>2.97</v>
       </c>
       <c r="AA44">
-        <v>2.11</v>
+        <v>1.89</v>
       </c>
       <c r="AB44">
         <v>7.5</v>
       </c>
       <c r="AC44">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="AD44">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AE44">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="AF44">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="AG44">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="AH44">
-        <v>3.42</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="45" spans="1:34">
@@ -5460,19 +5469,19 @@
         <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F45">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="G45">
-        <v>3.69</v>
+        <v>3.88</v>
       </c>
       <c r="H45">
-        <v>4.67</v>
+        <v>4.75</v>
       </c>
       <c r="I45">
         <v>1.05</v>
@@ -5555,7 +5564,7 @@
     </row>
     <row r="46" spans="1:34">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2">
         <v>44999.70833333334</v>
@@ -5564,19 +5573,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F46">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="G46">
-        <v>4.9</v>
+        <v>5.35</v>
       </c>
       <c r="H46">
-        <v>7.5</v>
+        <v>9.4</v>
       </c>
       <c r="I46">
         <v>1.02</v>
@@ -5594,7 +5603,7 @@
         <v>1.58</v>
       </c>
       <c r="N46">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="O46">
         <v>1.29</v>
@@ -5662,108 +5671,108 @@
         <v>52</v>
       </c>
       <c r="B47" s="2">
-        <v>44999.75</v>
+        <v>44999.70833333334</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F47">
-        <v>2.07</v>
+        <v>2.82</v>
       </c>
       <c r="G47">
-        <v>3.07</v>
+        <v>3.3</v>
       </c>
       <c r="H47">
-        <v>3.57</v>
+        <v>2.55</v>
       </c>
       <c r="I47">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="J47">
         <v>10</v>
       </c>
       <c r="K47">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>2.22</v>
+        <v>1.97</v>
       </c>
       <c r="N47">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="O47">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P47">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q47">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R47">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="T47">
         <v>1.28</v>
       </c>
       <c r="U47">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="V47">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X47">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="Y47">
-        <v>1.4</v>
+        <v>1.74</v>
       </c>
       <c r="Z47">
-        <v>3.31</v>
+        <v>3.51</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE47">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF47">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AG47">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH47">
-        <v>0</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="48" spans="1:34">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2">
         <v>44999.75</v>
@@ -5772,19 +5781,19 @@
         <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E48" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F48">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="G48">
+        <v>3.1</v>
+      </c>
+      <c r="H48">
         <v>3.2</v>
-      </c>
-      <c r="H48">
-        <v>3.25</v>
       </c>
       <c r="I48">
         <v>1.03</v>
@@ -5799,10 +5808,10 @@
         <v>2.88</v>
       </c>
       <c r="M48">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="N48">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O48">
         <v>1.44</v>
@@ -5870,79 +5879,79 @@
         <v>53</v>
       </c>
       <c r="B49" s="2">
-        <v>44999.79166666666</v>
+        <v>44999.75</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E49" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F49">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="G49">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H49">
-        <v>6.9</v>
+        <v>4.55</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M49">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="N49">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
       <c r="X49">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="Y49">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="Z49">
-        <v>2.74</v>
+        <v>3.31</v>
       </c>
       <c r="AA49">
         <v>0</v>
@@ -5960,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG49">
         <v>0</v>
@@ -5971,215 +5980,215 @@
     </row>
     <row r="50" spans="1:34">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2">
-        <v>44999.83333333334</v>
+        <v>44999.79166666666</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F50">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="G50">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I50">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
       <c r="N50">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
       <c r="O50">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P50">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
         <v>2</v>
       </c>
-      <c r="V50">
-        <v>1.5</v>
-      </c>
       <c r="W50">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="X50">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="Y50">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="Z50">
-        <v>3.07</v>
+        <v>2.74</v>
       </c>
       <c r="AA50">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AB50">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="AD50">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AE50">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="AG50">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AH50">
-        <v>4.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:34">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B51" s="2">
         <v>44999.83333333334</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F51">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="G51">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="H51">
-        <v>4.13</v>
+        <v>5.03</v>
       </c>
       <c r="I51">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="J51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K51">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="L51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M51">
-        <v>1.92</v>
+        <v>2.27</v>
       </c>
       <c r="N51">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="O51">
         <v>1.44</v>
       </c>
       <c r="P51">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q51">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R51">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="S51">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="T51">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="U51">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="W51">
-        <v>3</v>
+        <v>0.67</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="Y51">
-        <v>1.88</v>
+        <v>1.31</v>
       </c>
       <c r="Z51">
-        <v>1.88</v>
+        <v>3.07</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC51">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AD51">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE51">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AF51">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AG51">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AH51">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="52" spans="1:34">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" s="2">
         <v>44999.83333333334</v>
@@ -6188,58 +6197,58 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F52">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="G52">
-        <v>3.33</v>
+        <v>3.38</v>
       </c>
       <c r="H52">
-        <v>4.18</v>
+        <v>3.67</v>
       </c>
       <c r="I52">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="J52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K52">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="L52">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M52">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="N52">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="O52">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="P52">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q52">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R52">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="S52">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="T52">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="U52">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="V52">
         <v>3</v>
@@ -6248,146 +6257,146 @@
         <v>3</v>
       </c>
       <c r="X52">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="Z52">
-        <v>2.9</v>
+        <v>1.88</v>
       </c>
       <c r="AA52">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC52">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AD52">
         <v>0</v>
       </c>
       <c r="AE52">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH52">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="53" spans="1:34">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>44999.85416666666</v>
+        <v>44999.83333333334</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F53">
-        <v>2.19</v>
+        <v>1.52</v>
       </c>
       <c r="G53">
-        <v>3.12</v>
+        <v>3.64</v>
       </c>
       <c r="H53">
-        <v>3.2</v>
+        <v>4.74</v>
       </c>
       <c r="I53">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="J53">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="K53">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="L53">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="M53">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="N53">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="O53">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="P53">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q53">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="R53">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="S53">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="T53">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="U53">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="V53">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="W53">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="X53">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Y53">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="Z53">
-        <v>3.26</v>
+        <v>2.9</v>
       </c>
       <c r="AA53">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>4.38</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE53">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF53">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="54" spans="1:34">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
         <v>44999.85416666666</v>
@@ -6396,19 +6405,19 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E54" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F54">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="G54">
-        <v>3.03</v>
+        <v>3.3</v>
       </c>
       <c r="H54">
-        <v>2.73</v>
+        <v>3.25</v>
       </c>
       <c r="I54">
         <v>1.03</v>
@@ -6423,10 +6432,10 @@
         <v>2.95</v>
       </c>
       <c r="M54">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="N54">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="O54">
         <v>1.46</v>
@@ -6491,105 +6500,209 @@
     </row>
     <row r="55" spans="1:34">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2">
+        <v>44999.85416666666</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55">
+        <v>2.25</v>
+      </c>
+      <c r="G55">
+        <v>3.2</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>1.06</v>
+      </c>
+      <c r="J55">
+        <v>9.25</v>
+      </c>
+      <c r="K55">
+        <v>1.36</v>
+      </c>
+      <c r="L55">
+        <v>2.95</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>1.64</v>
+      </c>
+      <c r="O55">
+        <v>1.46</v>
+      </c>
+      <c r="P55">
+        <v>2.55</v>
+      </c>
+      <c r="Q55">
+        <v>1.87</v>
+      </c>
+      <c r="R55">
+        <v>1.87</v>
+      </c>
+      <c r="S55">
+        <v>1.3</v>
+      </c>
+      <c r="T55">
+        <v>1.25</v>
+      </c>
+      <c r="U55">
+        <v>1.6</v>
+      </c>
+      <c r="V55">
+        <v>0.5</v>
+      </c>
+      <c r="W55">
+        <v>1.5</v>
+      </c>
+      <c r="X55">
+        <v>1.85</v>
+      </c>
+      <c r="Y55">
+        <v>1.41</v>
+      </c>
+      <c r="Z55">
+        <v>3.26</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>1.8</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2">
         <v>44999.875</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>1</v>
       </c>
-      <c r="D55" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" t="s">
-        <v>163</v>
-      </c>
-      <c r="F55">
+      <c r="D56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" t="s">
+        <v>166</v>
+      </c>
+      <c r="F56">
         <v>3.15</v>
       </c>
-      <c r="G55">
+      <c r="G56">
         <v>2.99</v>
       </c>
-      <c r="H55">
+      <c r="H56">
         <v>2.28</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
         <v>1.49</v>
       </c>
-      <c r="L55">
+      <c r="L56">
         <v>2.44</v>
       </c>
-      <c r="M55">
+      <c r="M56">
         <v>2.53</v>
       </c>
-      <c r="N55">
+      <c r="N56">
         <v>1.42</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <v>0</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
         <v>0</v>
       </c>
     </row>
